--- a/Income_details.xlsx
+++ b/Income_details.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,63 +418,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Freelancing</v>
+        <v>Selling Cinnamon</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>80000</v>
       </c>
       <c r="C2" t="str">
-        <v>Working</v>
+        <v>Cultivation</v>
       </c>
       <c r="D2" t="str">
-        <v>2025-05-02</v>
+        <v>2025-05-17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Freelancing6</v>
+        <v>Tea Plantation</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="C3" t="str">
-        <v>Working</v>
+        <v>Cultivation</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-04-27</v>
+        <v>2025-05-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Freelancing3</v>
+        <v>Web Development</v>
       </c>
       <c r="B4">
         <v>20000</v>
       </c>
       <c r="C4" t="str">
-        <v>Working</v>
+        <v>Work from Home</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-04-25</v>
+        <v>2025-05-02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Freelancing123</v>
+        <v>Freelancing</v>
       </c>
       <c r="B5">
-        <v>1000000</v>
+        <v>20000</v>
       </c>
       <c r="C5" t="str">
         <v>Working</v>
       </c>
       <c r="D5" t="str">
-        <v>2025-04-01</v>
+        <v>2025-04-26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Bussiness</v>
+      </c>
+      <c r="B6">
+        <v>15000</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Bussiness</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2025-04-11</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Income_details.xlsx
+++ b/Income_details.xlsx
@@ -446,44 +446,44 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Web Development</v>
+        <v>rtrtrtr</v>
       </c>
       <c r="B4">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C4" t="str">
-        <v>Work from Home</v>
+        <v>Bussiness</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-05-02</v>
+        <v>2025-05-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Freelancing</v>
+        <v>Business</v>
       </c>
       <c r="B5">
-        <v>20000</v>
+        <v>4545</v>
       </c>
       <c r="C5" t="str">
-        <v>Working</v>
+        <v>hhfg</v>
       </c>
       <c r="D5" t="str">
-        <v>2025-04-26</v>
+        <v>2025-05-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bussiness</v>
+        <v>Web Development</v>
       </c>
       <c r="B6">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C6" t="str">
-        <v>Bussiness</v>
+        <v>Work from Home</v>
       </c>
       <c r="D6" t="str">
-        <v>2025-04-11</v>
+        <v>2025-05-02</v>
       </c>
     </row>
   </sheetData>
